--- a/files/OWE_Nov_21.xlsx
+++ b/files/OWE_Nov_21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13f2e27d3e46b003/Desktop/Budget/2021-22/Nov 21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development\telegram-bot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_60BAB0E7C5D1069CFBEE0C071A41C1816D55268B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53BA5AB-422B-46DA-B6E0-38B2C886504A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D489BA0-79DF-47B4-A9ED-EBFE84F69D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="599" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="599" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Month COPPY" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="337">
   <si>
     <t>PU</t>
   </si>
@@ -1093,6 +1093,9 @@
   <si>
     <t>Report generated on : 06.12.2021 at 01:45:51 PM</t>
   </si>
+  <si>
+    <t>Demand</t>
+  </si>
 </sst>
 </file>
 
@@ -1492,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1997,71 +2000,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2069,16 +2024,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2099,22 +2060,67 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,19 +2132,16 @@
     <xf numFmtId="1" fontId="27" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="27" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,6 +2149,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2156,16 +2162,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="27" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,14 +2189,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3694,46 +3706,46 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="304" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="269" t="str">
+      <c r="C3" s="306" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="304" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="269" t="str">
+      <c r="E3" s="304"/>
+      <c r="F3" s="306" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G3" s="271" t="s">
+      <c r="G3" s="304" t="s">
         <v>308</v>
       </c>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="304" t="s">
         <v>316</v>
       </c>
-      <c r="I3" s="269" t="str">
+      <c r="I3" s="306" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J3" s="271" t="s">
+      <c r="J3" s="304" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="307" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268" t="s">
+      <c r="L3" s="307"/>
+      <c r="M3" s="307" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="268"/>
-      <c r="O3" s="292" t="s">
+      <c r="N3" s="307"/>
+      <c r="O3" s="280" t="s">
         <v>314</v>
       </c>
       <c r="P3" s="175" t="s">
@@ -3742,16 +3754,16 @@
       <c r="Q3" s="155"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="273"/>
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
+      <c r="A4" s="301"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="305"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
@@ -3764,7 +3776,7 @@
       <c r="N4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="292"/>
+      <c r="O4" s="280"/>
       <c r="P4" s="174" t="s">
         <v>294</v>
       </c>
@@ -4029,62 +4041,62 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="278"/>
-      <c r="B11" s="278" t="s">
+      <c r="A11" s="299"/>
+      <c r="B11" s="299" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="276" t="str">
+      <c r="C11" s="288" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D11" s="278" t="s">
+      <c r="D11" s="299" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="278"/>
-      <c r="F11" s="319" t="str">
+      <c r="E11" s="299"/>
+      <c r="F11" s="320" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G11" s="278" t="s">
+      <c r="G11" s="299" t="s">
         <v>309</v>
       </c>
-      <c r="H11" s="278" t="s">
+      <c r="H11" s="299" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="276" t="str">
+      <c r="I11" s="288" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J11" s="278" t="s">
+      <c r="J11" s="299" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="279" t="s">
+      <c r="K11" s="296" t="s">
         <v>207</v>
       </c>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279" t="s">
+      <c r="L11" s="296"/>
+      <c r="M11" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="N11" s="279"/>
-      <c r="O11" s="293" t="s">
+      <c r="N11" s="296"/>
+      <c r="O11" s="281" t="s">
         <v>314</v>
       </c>
-      <c r="P11" s="324" t="s">
+      <c r="P11" s="325" t="s">
         <v>268</v>
       </c>
       <c r="Q11" s="163"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="277"/>
-      <c r="B12" s="277"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
+      <c r="A12" s="289"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="289"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="289"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
@@ -4097,8 +4109,8 @@
       <c r="N12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="293"/>
-      <c r="P12" s="324"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="325"/>
       <c r="Q12" s="163"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5196,62 +5208,62 @@
       <c r="Q31" s="165"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="286"/>
-      <c r="B32" s="285" t="s">
+      <c r="A32" s="269"/>
+      <c r="B32" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="282" t="str">
+      <c r="C32" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D32" s="285" t="s">
+      <c r="D32" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="285"/>
+      <c r="E32" s="292"/>
       <c r="F32" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G32" s="285" t="s">
+      <c r="G32" s="292" t="s">
         <v>309</v>
       </c>
-      <c r="H32" s="285" t="s">
+      <c r="H32" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="I32" s="282" t="str">
+      <c r="I32" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J32" s="285" t="s">
+      <c r="J32" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="284" t="s">
+      <c r="K32" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L32" s="284"/>
-      <c r="M32" s="284" t="s">
+      <c r="L32" s="268"/>
+      <c r="M32" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="284"/>
-      <c r="O32" s="286" t="s">
+      <c r="N32" s="268"/>
+      <c r="O32" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="P32" s="324" t="s">
+      <c r="P32" s="325" t="s">
         <v>268</v>
       </c>
       <c r="Q32" s="166"/>
     </row>
     <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="286"/>
-      <c r="B33" s="283"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
+      <c r="A33" s="269"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="317"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="283"/>
+      <c r="G33" s="291"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="291"/>
+      <c r="J33" s="291"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
@@ -5264,8 +5276,8 @@
       <c r="N33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="286"/>
-      <c r="P33" s="324"/>
+      <c r="O33" s="269"/>
+      <c r="P33" s="325"/>
       <c r="Q33" s="166"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,7 +5336,7 @@
         <f t="shared" ref="O34:O37" si="18">I34/F34</f>
         <v>0.52510460251046021</v>
       </c>
-      <c r="P34" s="325" t="s">
+      <c r="P34" s="328" t="s">
         <v>279</v>
       </c>
       <c r="Q34" s="164">
@@ -5392,7 +5404,7 @@
         <f t="shared" si="18"/>
         <v>2.1258741258741258</v>
       </c>
-      <c r="P35" s="326"/>
+      <c r="P35" s="329"/>
       <c r="Q35" s="164">
         <f>(I35/10)*12+6</f>
         <v>24.240000000000002</v>
@@ -5458,7 +5470,7 @@
         <f t="shared" si="18"/>
         <v>0.71748878923766823</v>
       </c>
-      <c r="P36" s="326"/>
+      <c r="P36" s="329"/>
       <c r="Q36" s="164">
         <f>(I36/10)*12</f>
         <v>1.92</v>
@@ -5524,7 +5536,7 @@
         <f t="shared" si="18"/>
         <v>1.1520591341077084</v>
       </c>
-      <c r="P37" s="327"/>
+      <c r="P37" s="330"/>
       <c r="Q37" s="74">
         <f>SUM(Q34:Q36)</f>
         <v>32.184000000000005</v>
@@ -5548,64 +5560,64 @@
       <c r="Q39" s="165"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="286" t="s">
+      <c r="A40" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="285" t="s">
+      <c r="B40" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="282" t="str">
+      <c r="C40" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D40" s="285" t="s">
+      <c r="D40" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="285"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G40" s="285" t="s">
+      <c r="G40" s="292" t="s">
         <v>309</v>
       </c>
-      <c r="H40" s="285" t="s">
+      <c r="H40" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="I40" s="282" t="str">
+      <c r="I40" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J40" s="285" t="s">
+      <c r="J40" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="284" t="s">
+      <c r="K40" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L40" s="284"/>
-      <c r="M40" s="284" t="s">
+      <c r="L40" s="268"/>
+      <c r="M40" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="284"/>
-      <c r="O40" s="286" t="s">
+      <c r="N40" s="268"/>
+      <c r="O40" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="P40" s="328" t="s">
+      <c r="P40" s="326" t="s">
         <v>268</v>
       </c>
       <c r="Q40" s="166"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="286"/>
-      <c r="B41" s="283"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="283"/>
+      <c r="A41" s="269"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
       <c r="F41" s="317"/>
-      <c r="G41" s="283"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283"/>
+      <c r="G41" s="291"/>
+      <c r="H41" s="291"/>
+      <c r="I41" s="291"/>
+      <c r="J41" s="291"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
@@ -5618,8 +5630,8 @@
       <c r="N41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O41" s="286"/>
-      <c r="P41" s="329"/>
+      <c r="O41" s="269"/>
+      <c r="P41" s="327"/>
       <c r="Q41" s="166"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6174,7 +6186,7 @@
         <f t="shared" ref="D52:D56" si="32">C52/$C$7</f>
         <v>1.910180436617603E-2</v>
       </c>
-      <c r="E52" s="299"/>
+      <c r="E52" s="285"/>
       <c r="F52" s="22">
         <f>ROUND('PU Wise OWE'!$AK$127/10000,2)-F43</f>
         <v>121.82</v>
@@ -6242,7 +6254,7 @@
         <f t="shared" si="32"/>
         <v>1.497453035212155E-2</v>
       </c>
-      <c r="E53" s="300"/>
+      <c r="E53" s="286"/>
       <c r="F53" s="22">
         <f>ROUND('PU Wise OWE'!$AL$127/10000,2)</f>
         <v>109.76</v>
@@ -6311,7 +6323,7 @@
         <f t="shared" si="32"/>
         <v>3.4076334718297581E-2</v>
       </c>
-      <c r="E54" s="301"/>
+      <c r="E54" s="287"/>
       <c r="F54" s="74">
         <f t="shared" ref="F54:I54" si="38">SUM(F52:F53)</f>
         <v>231.57999999999998</v>
@@ -6453,46 +6465,46 @@
       <c r="Q57" s="167"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="285" t="s">
+      <c r="B58" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="282" t="str">
+      <c r="C58" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D58" s="285" t="s">
+      <c r="D58" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="285"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G58" s="285" t="s">
+      <c r="G58" s="292" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="285" t="s">
+      <c r="H58" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="I58" s="282" t="str">
+      <c r="I58" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J58" s="285" t="s">
+      <c r="J58" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K58" s="284" t="s">
+      <c r="K58" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L58" s="284"/>
-      <c r="M58" s="284" t="s">
+      <c r="L58" s="268"/>
+      <c r="M58" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N58" s="284"/>
-      <c r="O58" s="286" t="s">
+      <c r="N58" s="268"/>
+      <c r="O58" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="P58" s="324" t="s">
+      <c r="P58" s="325" t="s">
         <v>268</v>
       </c>
       <c r="Q58" s="166"/>
@@ -6501,15 +6513,15 @@
       <c r="A59" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="283"/>
-      <c r="C59" s="283"/>
-      <c r="D59" s="283"/>
-      <c r="E59" s="283"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="291"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="317"/>
-      <c r="G59" s="283"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="283"/>
-      <c r="J59" s="283"/>
+      <c r="G59" s="291"/>
+      <c r="H59" s="291"/>
+      <c r="I59" s="291"/>
+      <c r="J59" s="291"/>
       <c r="K59" s="79" t="s">
         <v>145</v>
       </c>
@@ -6522,8 +6534,8 @@
       <c r="N59" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O59" s="286"/>
-      <c r="P59" s="324"/>
+      <c r="O59" s="269"/>
+      <c r="P59" s="325"/>
       <c r="Q59" s="166"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6541,7 +6553,7 @@
         <f t="shared" ref="D60:D64" si="41">C60/$C$7</f>
         <v>9.9375644077422214E-3</v>
       </c>
-      <c r="E60" s="296"/>
+      <c r="E60" s="282"/>
       <c r="F60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$61/10000,2)</f>
         <v>67.81</v>
@@ -6607,7 +6619,7 @@
         <f t="shared" si="41"/>
         <v>1.8797998332519157E-3</v>
       </c>
-      <c r="E61" s="297"/>
+      <c r="E61" s="283"/>
       <c r="F61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$94/10000,2)</f>
         <v>16.309999999999999</v>
@@ -6675,7 +6687,7 @@
         <f t="shared" si="41"/>
         <v>1.6761116970501471E-3</v>
       </c>
-      <c r="E62" s="297"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>10.1</v>
@@ -6743,7 +6755,7 @@
         <f t="shared" si="41"/>
         <v>4.7987543952620064E-4</v>
       </c>
-      <c r="E63" s="297"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$61/10000,2)</f>
         <v>1.46</v>
@@ -6810,7 +6822,7 @@
         <f t="shared" si="41"/>
         <v>1.3973351377570487E-2</v>
       </c>
-      <c r="E64" s="298"/>
+      <c r="E64" s="284"/>
       <c r="F64" s="26">
         <f>SUM(F60:F63)</f>
         <v>95.679999999999993</v>
@@ -7868,36 +7880,36 @@
     </row>
     <row r="87" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="77"/>
-      <c r="B87" s="285" t="s">
+      <c r="B87" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="C87" s="282" t="s">
+      <c r="C87" s="290" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="285" t="s">
+      <c r="D87" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="285"/>
+      <c r="E87" s="292"/>
       <c r="F87" s="316" t="s">
         <v>313</v>
       </c>
-      <c r="G87" s="285" t="s">
+      <c r="G87" s="292" t="s">
         <v>315</v>
       </c>
       <c r="H87" s="152"/>
-      <c r="I87" s="282" t="s">
+      <c r="I87" s="290" t="s">
         <v>312</v>
       </c>
-      <c r="J87" s="285" t="s">
+      <c r="J87" s="292" t="s">
         <v>205</v>
       </c>
       <c r="K87" s="152"/>
       <c r="L87" s="152"/>
-      <c r="M87" s="284" t="s">
+      <c r="M87" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N87" s="284"/>
-      <c r="O87" s="286" t="s">
+      <c r="N87" s="268"/>
+      <c r="O87" s="269" t="s">
         <v>314</v>
       </c>
       <c r="Q87" s="165"/>
@@ -7906,15 +7918,15 @@
       <c r="A88" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="283"/>
-      <c r="C88" s="283"/>
-      <c r="D88" s="283"/>
-      <c r="E88" s="283"/>
+      <c r="B88" s="291"/>
+      <c r="C88" s="291"/>
+      <c r="D88" s="291"/>
+      <c r="E88" s="291"/>
       <c r="F88" s="317"/>
-      <c r="G88" s="283"/>
+      <c r="G88" s="291"/>
       <c r="H88" s="153"/>
-      <c r="I88" s="330"/>
-      <c r="J88" s="283"/>
+      <c r="I88" s="324"/>
+      <c r="J88" s="291"/>
       <c r="K88" s="153"/>
       <c r="L88" s="153"/>
       <c r="M88" s="79" t="s">
@@ -7923,7 +7935,7 @@
       <c r="N88" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O88" s="286"/>
+      <c r="O88" s="269"/>
       <c r="Q88" s="165"/>
     </row>
     <row r="89" spans="1:18" s="147" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8599,39 +8611,39 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="77"/>
-      <c r="B104" s="285" t="s">
+      <c r="B104" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="C104" s="282" t="str">
+      <c r="C104" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="D104" s="285" t="s">
+      <c r="D104" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E104" s="285"/>
+      <c r="E104" s="292"/>
       <c r="F104" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G104" s="285" t="s">
+      <c r="G104" s="292" t="s">
         <v>315</v>
       </c>
       <c r="H104" s="152"/>
-      <c r="I104" s="282" t="str">
+      <c r="I104" s="290" t="str">
         <f>I40</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J104" s="285" t="s">
+      <c r="J104" s="292" t="s">
         <v>205</v>
       </c>
       <c r="K104" s="152"/>
       <c r="L104" s="152"/>
-      <c r="M104" s="284" t="s">
+      <c r="M104" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N104" s="284"/>
-      <c r="O104" s="286" t="s">
+      <c r="N104" s="268"/>
+      <c r="O104" s="269" t="s">
         <v>314</v>
       </c>
       <c r="Q104" s="165"/>
@@ -8640,15 +8652,15 @@
       <c r="A105" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="283"/>
-      <c r="C105" s="283"/>
-      <c r="D105" s="283"/>
-      <c r="E105" s="283"/>
+      <c r="B105" s="291"/>
+      <c r="C105" s="291"/>
+      <c r="D105" s="291"/>
+      <c r="E105" s="291"/>
       <c r="F105" s="317"/>
-      <c r="G105" s="283"/>
+      <c r="G105" s="291"/>
       <c r="H105" s="153"/>
-      <c r="I105" s="283"/>
-      <c r="J105" s="283"/>
+      <c r="I105" s="291"/>
+      <c r="J105" s="291"/>
       <c r="K105" s="153"/>
       <c r="L105" s="153"/>
       <c r="M105" s="79" t="s">
@@ -8657,7 +8669,7 @@
       <c r="N105" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O105" s="286"/>
+      <c r="O105" s="269"/>
       <c r="Q105" s="165"/>
     </row>
     <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -9090,14 +9102,73 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D58:D59"/>
@@ -9114,73 +9185,14 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <conditionalFormatting sqref="O13:O27">
     <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
@@ -14819,11 +14831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BQ136"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AV102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BG113" sqref="BG113"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15028,8 +15040,12 @@
       <c r="BK2" s="267"/>
     </row>
     <row r="3" spans="1:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>129</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
@@ -15215,12 +15231,6 @@
       </c>
     </row>
     <row r="4" spans="1:67" s="130" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="128" t="s">
-        <v>129</v>
-      </c>
       <c r="C4" s="128">
         <v>1</v>
       </c>
@@ -15400,7 +15410,7 @@
       <c r="BK4" s="135"/>
     </row>
     <row r="5" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="331" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -15591,9 +15601,7 @@
       <c r="BM5" s="30"/>
     </row>
     <row r="6" spans="1:67" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
-        <v>131</v>
-      </c>
+      <c r="A6" s="332"/>
       <c r="B6" s="216" t="s">
         <v>325</v>
       </c>
@@ -15782,7 +15790,7 @@
       <c r="BM6" s="217"/>
     </row>
     <row r="7" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="332"/>
       <c r="B7" s="12" t="s">
         <v>326</v>
       </c>
@@ -16038,7 +16046,7 @@
       </c>
     </row>
     <row r="8" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="332"/>
       <c r="B8" s="182" t="s">
         <v>327</v>
       </c>
@@ -16294,7 +16302,7 @@
       </c>
     </row>
     <row r="9" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="332"/>
       <c r="B9" s="5" t="s">
         <v>132</v>
       </c>
@@ -16548,7 +16556,7 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="5" t="s">
         <v>133</v>
       </c>
@@ -16802,7 +16810,7 @@
       </c>
     </row>
     <row r="11" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="332"/>
       <c r="B11" s="5" t="s">
         <v>134</v>
       </c>
@@ -17056,7 +17064,7 @@
       </c>
     </row>
     <row r="12" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="5" t="s">
         <v>135</v>
       </c>
@@ -17311,7 +17319,7 @@
       <c r="BO12" s="36"/>
     </row>
     <row r="13" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="5" t="s">
         <v>296</v>
       </c>
@@ -17565,7 +17573,7 @@
       </c>
     </row>
     <row r="14" spans="1:67" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+      <c r="A14" s="333"/>
       <c r="B14" s="5" t="s">
         <v>297</v>
       </c>
@@ -45297,11 +45305,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="A5:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="C91:AA91 C102:AA102 C13:AA13 C80:AA80 C58:AA58 C36:AA36 C24:AA24 C113:AA113 C135:AA135 C124:AA124 BM13 BM24 BM36 BM47 BM58 BM69 BM80 BM91 BM102 BM113 BM124 BM135 AC124:BI124 AC135:BI135 AC113:BI113 AC24:BI24 AC36:BI36 AC58:BI58 AC80:BI80 AC13:BI13 AC102:BI102 AC91:BI91 C47:BI47">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
@@ -45330,7 +45339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -45364,58 +45373,58 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="304" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="304" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="269" t="str">
+      <c r="E3" s="304"/>
+      <c r="F3" s="306" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G3" s="271" t="s">
+      <c r="G3" s="304" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="269" t="str">
+      <c r="H3" s="306" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I3" s="269" t="str">
+      <c r="I3" s="306" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Nov-21</v>
       </c>
-      <c r="J3" s="269" t="str">
+      <c r="J3" s="306" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="307" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268" t="s">
+      <c r="L3" s="307"/>
+      <c r="M3" s="307" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="268"/>
-      <c r="O3" s="292" t="s">
+      <c r="N3" s="307"/>
+      <c r="O3" s="280" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="305"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
@@ -45428,7 +45437,7 @@
       <c r="N4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="292"/>
+      <c r="O4" s="280"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -45646,44 +45655,44 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="274" t="s">
+      <c r="B11" s="302" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="278" t="s">
+      <c r="C11" s="299" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="278" t="s">
+      <c r="D11" s="299" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="278"/>
-      <c r="F11" s="276" t="str">
+      <c r="E11" s="299"/>
+      <c r="F11" s="288" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G11" s="278" t="s">
+      <c r="G11" s="299" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="276" t="str">
+      <c r="H11" s="288" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I11" s="276" t="str">
+      <c r="I11" s="288" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Nov-21</v>
       </c>
-      <c r="J11" s="276" t="str">
+      <c r="J11" s="288" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="K11" s="279" t="s">
+      <c r="K11" s="296" t="s">
         <v>207</v>
       </c>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279" t="s">
+      <c r="L11" s="296"/>
+      <c r="M11" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="N11" s="279"/>
-      <c r="O11" s="293" t="s">
+      <c r="N11" s="296"/>
+      <c r="O11" s="281" t="s">
         <v>314</v>
       </c>
       <c r="P11" t="s">
@@ -45692,15 +45701,15 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="275"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="289"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="289"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
@@ -45713,7 +45722,7 @@
       <c r="N12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="293"/>
+      <c r="O12" s="281"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
@@ -46587,57 +46596,57 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="280" t="s">
+      <c r="B32" s="297" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="285" t="s">
+      <c r="C32" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="285" t="s">
+      <c r="D32" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="285"/>
-      <c r="F32" s="282" t="str">
+      <c r="E32" s="292"/>
+      <c r="F32" s="290" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G32" s="285" t="s">
+      <c r="G32" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="282" t="str">
+      <c r="H32" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I32" s="282" t="str">
+      <c r="I32" s="290" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Nov-21</v>
       </c>
-      <c r="J32" s="282" t="str">
+      <c r="J32" s="290" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="K32" s="284" t="s">
+      <c r="K32" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L32" s="284"/>
-      <c r="M32" s="284" t="s">
+      <c r="L32" s="268"/>
+      <c r="M32" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="284"/>
-      <c r="O32" s="286" t="s">
+      <c r="N32" s="268"/>
+      <c r="O32" s="269" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="281"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="283"/>
+      <c r="B33" s="298"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="291"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="291"/>
+      <c r="J33" s="291"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
@@ -46650,7 +46659,7 @@
       <c r="N33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="286"/>
+      <c r="O33" s="269"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="84" t="s">
@@ -46874,57 +46883,57 @@
       </c>
     </row>
     <row r="40" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="286" t="s">
+      <c r="B40" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="285" t="s">
+      <c r="D40" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="287"/>
-      <c r="F40" s="282" t="str">
+      <c r="E40" s="293"/>
+      <c r="F40" s="290" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G40" s="285" t="s">
+      <c r="G40" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="H40" s="282" t="str">
+      <c r="H40" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I40" s="282" t="str">
+      <c r="I40" s="290" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Nov-21</v>
       </c>
-      <c r="J40" s="282" t="str">
+      <c r="J40" s="290" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="K40" s="284" t="s">
+      <c r="K40" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L40" s="284"/>
-      <c r="M40" s="284" t="s">
+      <c r="L40" s="268"/>
+      <c r="M40" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="284"/>
-      <c r="O40" s="286" t="s">
+      <c r="N40" s="268"/>
+      <c r="O40" s="269" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="286"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="288"/>
-      <c r="F41" s="283"/>
-      <c r="G41" s="283"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="291"/>
+      <c r="H41" s="291"/>
+      <c r="I41" s="291"/>
+      <c r="J41" s="291"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
@@ -46937,7 +46946,7 @@
       <c r="N41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O41" s="286"/>
+      <c r="O41" s="269"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
@@ -46950,7 +46959,7 @@
         <f t="shared" ref="D42:D50" si="32">C42/$C$7</f>
         <v>3.4979489665528697E-2</v>
       </c>
-      <c r="E42" s="288"/>
+      <c r="E42" s="294"/>
       <c r="F42" s="21">
         <f>SUM(F43:F48)</f>
         <v>306.45999999999998</v>
@@ -47003,7 +47012,7 @@
         <f t="shared" si="32"/>
         <v>2.5185437214841119E-3</v>
       </c>
-      <c r="E43" s="288"/>
+      <c r="E43" s="294"/>
       <c r="F43" s="21">
         <f>ROUND('PU Wise OWE'!$AK$83/10000,2)</f>
         <v>16.84</v>
@@ -47056,7 +47065,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E44" s="288"/>
+      <c r="E44" s="294"/>
       <c r="F44" s="21">
         <v>0</v>
       </c>
@@ -47106,7 +47115,7 @@
         <f t="shared" si="32"/>
         <v>1.4632879722589252E-2</v>
       </c>
-      <c r="E45" s="288"/>
+      <c r="E45" s="294"/>
       <c r="F45" s="21">
         <f>ROUND('PU Wise OWE'!$AR$83/10000,2)</f>
         <v>114.54</v>
@@ -47159,7 +47168,7 @@
         <f t="shared" si="32"/>
         <v>5.9721079916756304E-3</v>
       </c>
-      <c r="E46" s="288"/>
+      <c r="E46" s="294"/>
       <c r="F46" s="21">
         <f>ROUND('PU Wise OWE'!$AU$83/10000,2)</f>
         <v>50.53</v>
@@ -47212,7 +47221,7 @@
         <f t="shared" si="32"/>
         <v>6.9774789236647173E-3</v>
       </c>
-      <c r="E47" s="288"/>
+      <c r="E47" s="294"/>
       <c r="F47" s="21">
         <f>ROUND('PU Wise OWE'!$AZ$83/10000,2)</f>
         <v>46.04</v>
@@ -47265,7 +47274,7 @@
         <f t="shared" si="32"/>
         <v>4.878479306114983E-3</v>
       </c>
-      <c r="E48" s="288"/>
+      <c r="E48" s="294"/>
       <c r="F48" s="21">
         <f>ROUND('PU Wise OWE'!$BA$83/10000,2)</f>
         <v>78.510000000000005</v>
@@ -47318,7 +47327,7 @@
         <f t="shared" si="32"/>
         <v>8.4865585999506263E-2</v>
       </c>
-      <c r="E49" s="288"/>
+      <c r="E49" s="294"/>
       <c r="F49" s="21">
         <f>ROUND('PU Wise OWE'!$AM$83/10000,2)</f>
         <v>685.16</v>
@@ -47372,7 +47381,7 @@
         <f t="shared" si="32"/>
         <v>0.11984507566503497</v>
       </c>
-      <c r="E50" s="289"/>
+      <c r="E50" s="295"/>
       <c r="F50" s="26">
         <f>F42+F49</f>
         <v>991.61999999999989</v>
@@ -47431,7 +47440,7 @@
         <f t="shared" ref="D53:D57" si="51">C53/$C$7</f>
         <v>2.4159600716806451E-2</v>
       </c>
-      <c r="E53" s="299"/>
+      <c r="E53" s="285"/>
       <c r="F53" s="22">
         <f>ROUND('PU Wise OWE'!$AK$127/10000,2)-F43</f>
         <v>121.82</v>
@@ -47484,7 +47493,7 @@
         <f t="shared" si="51"/>
         <v>1.5535922824350441E-2</v>
       </c>
-      <c r="E54" s="300"/>
+      <c r="E54" s="286"/>
       <c r="F54" s="22">
         <f>ROUND('PU Wise OWE'!$AL$127/10000,2)</f>
         <v>109.76</v>
@@ -47538,7 +47547,7 @@
         <f t="shared" si="51"/>
         <v>3.9695523541156887E-2</v>
       </c>
-      <c r="E55" s="301"/>
+      <c r="E55" s="287"/>
       <c r="F55" s="74">
         <f t="shared" ref="F55:J55" si="60">SUM(F53:F54)</f>
         <v>231.57999999999998</v>
@@ -47655,7 +47664,7 @@
         <f t="shared" ref="D60:D64" si="69">C60/$C$7</f>
         <v>1.0245574001568173E-2</v>
       </c>
-      <c r="E60" s="296"/>
+      <c r="E60" s="282"/>
       <c r="F60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$61/10000,2)</f>
         <v>67.81</v>
@@ -47708,7 +47717,7 @@
         <f t="shared" si="69"/>
         <v>2.7193620883063595E-3</v>
       </c>
-      <c r="E61" s="297"/>
+      <c r="E61" s="283"/>
       <c r="F61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$94/10000,2)</f>
         <v>16.309999999999999</v>
@@ -47761,7 +47770,7 @@
         <f t="shared" si="69"/>
         <v>1.265027801192375E-3</v>
       </c>
-      <c r="E62" s="297"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>10.1</v>
@@ -47814,7 +47823,7 @@
         <f t="shared" si="69"/>
         <v>2.0977205196718855E-4</v>
       </c>
-      <c r="E63" s="297"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$61/10000,2)</f>
         <v>1.46</v>
@@ -47868,7 +47877,7 @@
         <f t="shared" si="69"/>
         <v>1.4439735943034097E-2</v>
       </c>
-      <c r="E64" s="298"/>
+      <c r="E64" s="284"/>
       <c r="F64" s="26">
         <f>SUM(F60:F63)</f>
         <v>95.679999999999993</v>
@@ -48301,57 +48310,57 @@
       <c r="O76" s="214"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="306" t="s">
+      <c r="B77" s="273" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="286" t="s">
+      <c r="C77" s="269" t="s">
         <v>302</v>
       </c>
-      <c r="D77" s="286" t="s">
+      <c r="D77" s="269" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="286"/>
-      <c r="F77" s="307" t="str">
+      <c r="E77" s="269"/>
+      <c r="F77" s="270" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G77" s="286" t="s">
+      <c r="G77" s="269" t="s">
         <v>206</v>
       </c>
-      <c r="H77" s="307" t="str">
+      <c r="H77" s="270" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I77" s="307" t="str">
+      <c r="I77" s="270" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Nov-21</v>
       </c>
-      <c r="J77" s="307" t="str">
+      <c r="J77" s="270" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="K77" s="284" t="s">
+      <c r="K77" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="L77" s="284"/>
-      <c r="M77" s="284" t="s">
+      <c r="L77" s="268"/>
+      <c r="M77" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="N77" s="284"/>
-      <c r="O77" s="286" t="s">
+      <c r="N77" s="268"/>
+      <c r="O77" s="269" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="306"/>
-      <c r="C78" s="286"/>
-      <c r="D78" s="286"/>
-      <c r="E78" s="286"/>
-      <c r="F78" s="286"/>
-      <c r="G78" s="286"/>
-      <c r="H78" s="286"/>
-      <c r="I78" s="286"/>
-      <c r="J78" s="286"/>
+      <c r="B78" s="273"/>
+      <c r="C78" s="269"/>
+      <c r="D78" s="269"/>
+      <c r="E78" s="269"/>
+      <c r="F78" s="269"/>
+      <c r="G78" s="269"/>
+      <c r="H78" s="269"/>
+      <c r="I78" s="269"/>
+      <c r="J78" s="269"/>
       <c r="K78" s="79" t="s">
         <v>145</v>
       </c>
@@ -48364,7 +48373,7 @@
       <c r="N78" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O78" s="286"/>
+      <c r="O78" s="269"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
@@ -48802,58 +48811,58 @@
       <c r="O89" s="178"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="304" t="s">
+      <c r="B90" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="290" t="s">
+      <c r="C90" s="274" t="s">
         <v>302</v>
       </c>
-      <c r="D90" s="290" t="s">
+      <c r="D90" s="274" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="290"/>
-      <c r="F90" s="294" t="s">
+      <c r="E90" s="274"/>
+      <c r="F90" s="278" t="s">
         <v>307</v>
       </c>
-      <c r="G90" s="290" t="s">
+      <c r="G90" s="274" t="s">
         <v>309</v>
       </c>
-      <c r="H90" s="294" t="s">
+      <c r="H90" s="278" t="s">
         <v>331</v>
       </c>
-      <c r="I90" s="294" t="s">
+      <c r="I90" s="278" t="s">
         <v>332</v>
       </c>
-      <c r="J90" s="290" t="s">
+      <c r="J90" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="K90" s="302" t="s">
+      <c r="K90" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="L90" s="302"/>
-      <c r="M90" s="303" t="s">
+      <c r="L90" s="276"/>
+      <c r="M90" s="277" t="s">
         <v>317</v>
       </c>
       <c r="N90" s="191"/>
       <c r="O90" s="196"/>
     </row>
     <row r="91" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="305"/>
-      <c r="C91" s="291"/>
-      <c r="D91" s="291"/>
-      <c r="E91" s="291"/>
-      <c r="F91" s="291"/>
-      <c r="G91" s="291"/>
-      <c r="H91" s="291"/>
-      <c r="I91" s="295"/>
-      <c r="J91" s="291"/>
+      <c r="B91" s="272"/>
+      <c r="C91" s="275"/>
+      <c r="D91" s="275"/>
+      <c r="E91" s="275"/>
+      <c r="F91" s="275"/>
+      <c r="G91" s="275"/>
+      <c r="H91" s="275"/>
+      <c r="I91" s="279"/>
+      <c r="J91" s="275"/>
       <c r="K91" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L91" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="M91" s="303"/>
+      <c r="M91" s="277"/>
       <c r="N91" s="191"/>
       <c r="O91" s="196"/>
     </row>
@@ -49547,35 +49556,35 @@
     </row>
     <row r="107" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="252"/>
-      <c r="C107" s="290" t="s">
+      <c r="C107" s="274" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="290" t="s">
+      <c r="D107" s="274" t="s">
         <v>173</v>
       </c>
-      <c r="E107" s="290"/>
-      <c r="F107" s="294" t="str">
+      <c r="E107" s="274"/>
+      <c r="F107" s="278" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="G107" s="290" t="s">
+      <c r="G107" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="H107" s="294" t="str">
+      <c r="H107" s="278" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="I107" s="294" t="s">
+      <c r="I107" s="278" t="s">
         <v>332</v>
       </c>
-      <c r="J107" s="290" t="s">
+      <c r="J107" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="K107" s="302" t="s">
+      <c r="K107" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="302"/>
-      <c r="M107" s="303" t="s">
+      <c r="L107" s="276"/>
+      <c r="M107" s="277" t="s">
         <v>306</v>
       </c>
       <c r="N107" s="191"/>
@@ -49585,21 +49594,21 @@
       <c r="B108" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="291"/>
-      <c r="D108" s="291"/>
-      <c r="E108" s="291"/>
-      <c r="F108" s="291"/>
-      <c r="G108" s="291"/>
-      <c r="H108" s="291"/>
-      <c r="I108" s="295"/>
-      <c r="J108" s="291"/>
+      <c r="C108" s="275"/>
+      <c r="D108" s="275"/>
+      <c r="E108" s="275"/>
+      <c r="F108" s="275"/>
+      <c r="G108" s="275"/>
+      <c r="H108" s="275"/>
+      <c r="I108" s="279"/>
+      <c r="J108" s="275"/>
       <c r="K108" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L108" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="303"/>
+      <c r="M108" s="277"/>
       <c r="N108" s="191"/>
       <c r="O108" s="196"/>
     </row>
@@ -50011,32 +50020,47 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O11:O12"/>
@@ -50053,47 +50077,32 @@
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E40:E50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="H77:H78"/>
   </mergeCells>
   <conditionalFormatting sqref="O109:O112 O115:O118 O65">
     <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
@@ -50161,62 +50170,62 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="304" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="269" t="str">
+      <c r="D3" s="306" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E3" s="271" t="s">
+      <c r="E3" s="304" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="318" t="str">
+      <c r="F3" s="304"/>
+      <c r="G3" s="319" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="304" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="269" t="str">
+      <c r="I3" s="306" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J3" s="271" t="s">
+      <c r="J3" s="304" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="307" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="268"/>
-      <c r="M3" s="292" t="s">
+      <c r="L3" s="307"/>
+      <c r="M3" s="280" t="s">
         <v>314</v>
       </c>
-      <c r="N3" s="321"/>
+      <c r="N3" s="315"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="305"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="292"/>
-      <c r="N4" s="321"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="315"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -50402,62 +50411,62 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="278"/>
-      <c r="C11" s="278" t="s">
+      <c r="B11" s="299"/>
+      <c r="C11" s="299" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="276" t="str">
+      <c r="D11" s="288" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="299" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="278"/>
-      <c r="G11" s="319" t="str">
+      <c r="F11" s="299"/>
+      <c r="G11" s="320" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H11" s="278" t="s">
+      <c r="H11" s="299" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="276" t="str">
+      <c r="I11" s="288" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J11" s="278" t="s">
+      <c r="J11" s="299" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="279" t="s">
+      <c r="K11" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="279"/>
-      <c r="M11" s="293" t="s">
+      <c r="L11" s="296"/>
+      <c r="M11" s="281" t="s">
         <v>314</v>
       </c>
-      <c r="N11" s="321" t="s">
+      <c r="N11" s="315" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="277"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="277"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="289"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="293"/>
-      <c r="N12" s="321"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="315"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
@@ -51205,61 +51214,61 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="286"/>
-      <c r="C32" s="285" t="s">
+      <c r="B32" s="269"/>
+      <c r="C32" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="282" t="str">
+      <c r="D32" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E32" s="285" t="s">
+      <c r="E32" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="285"/>
+      <c r="F32" s="292"/>
       <c r="G32" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H32" s="285" t="s">
+      <c r="H32" s="292" t="s">
         <v>309</v>
       </c>
-      <c r="I32" s="282" t="str">
+      <c r="I32" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J32" s="285" t="s">
+      <c r="J32" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="284" t="s">
+      <c r="K32" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="284"/>
-      <c r="M32" s="286" t="s">
+      <c r="L32" s="268"/>
+      <c r="M32" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="N32" s="321" t="s">
+      <c r="N32" s="315" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="286"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="283"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="291"/>
       <c r="G33" s="317"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="283"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="291"/>
+      <c r="J33" s="291"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="286"/>
-      <c r="N33" s="321"/>
+      <c r="M33" s="269"/>
+      <c r="N33" s="315"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="84" t="s">
@@ -51305,7 +51314,7 @@
         <f t="shared" ref="M34:M37" si="11">I34/G34</f>
         <v>0.52510460251046021</v>
       </c>
-      <c r="N34" s="322"/>
+      <c r="N34" s="318"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
@@ -51351,7 +51360,7 @@
         <f t="shared" si="11"/>
         <v>2.1258741258741258</v>
       </c>
-      <c r="N35" s="322"/>
+      <c r="N35" s="318"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
@@ -51397,7 +51406,7 @@
         <f t="shared" si="11"/>
         <v>0.71748878923766823</v>
       </c>
-      <c r="N36" s="322"/>
+      <c r="N36" s="318"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
@@ -51454,63 +51463,63 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="286" t="s">
+      <c r="B40" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="282" t="str">
+      <c r="D40" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E40" s="285" t="s">
+      <c r="E40" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="285"/>
+      <c r="F40" s="292"/>
       <c r="G40" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H40" s="285" t="s">
+      <c r="H40" s="292" t="s">
         <v>299</v>
       </c>
-      <c r="I40" s="282" t="str">
+      <c r="I40" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J40" s="285" t="s">
+      <c r="J40" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="284" t="s">
+      <c r="K40" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="284"/>
-      <c r="M40" s="286" t="s">
+      <c r="L40" s="268"/>
+      <c r="M40" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="N40" s="321" t="s">
+      <c r="N40" s="315" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="286"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="283"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="291"/>
       <c r="G41" s="317"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283"/>
+      <c r="H41" s="291"/>
+      <c r="I41" s="291"/>
+      <c r="J41" s="291"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M41" s="286"/>
-      <c r="N41" s="321"/>
+      <c r="M41" s="269"/>
+      <c r="N41" s="315"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
@@ -51894,7 +51903,7 @@
         <f t="shared" ref="E52:E56" si="20">D52/$D$7</f>
         <v>1.910180436617603E-2</v>
       </c>
-      <c r="F52" s="299"/>
+      <c r="F52" s="285"/>
       <c r="G52" s="22">
         <f>ROUND('PU Wise OWE'!$AK$127/10000,2)-G43</f>
         <v>121.82</v>
@@ -51939,7 +51948,7 @@
         <f t="shared" si="20"/>
         <v>1.497453035212155E-2</v>
       </c>
-      <c r="F53" s="300"/>
+      <c r="F53" s="286"/>
       <c r="G53" s="22">
         <f>ROUND('PU Wise OWE'!$AL$127/10000,2)</f>
         <v>109.76</v>
@@ -51985,7 +51994,7 @@
         <f t="shared" si="20"/>
         <v>3.4076334718297581E-2</v>
       </c>
-      <c r="F54" s="301"/>
+      <c r="F54" s="287"/>
       <c r="G54" s="74">
         <f t="shared" ref="G54:I54" si="24">SUM(G52:G53)</f>
         <v>231.57999999999998</v>
@@ -52076,39 +52085,39 @@
       <c r="M57" s="100"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C58" s="285" t="s">
+      <c r="C58" s="292" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="282" t="str">
+      <c r="D58" s="290" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E58" s="285" t="s">
+      <c r="E58" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="285"/>
+      <c r="F58" s="292"/>
       <c r="G58" s="316" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H58" s="285" t="s">
+      <c r="H58" s="292" t="s">
         <v>299</v>
       </c>
-      <c r="I58" s="282" t="str">
+      <c r="I58" s="290" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J58" s="285" t="s">
+      <c r="J58" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="K58" s="284" t="s">
+      <c r="K58" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="L58" s="284"/>
-      <c r="M58" s="286" t="s">
+      <c r="L58" s="268"/>
+      <c r="M58" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="321" t="s">
+      <c r="N58" s="315" t="s">
         <v>209</v>
       </c>
     </row>
@@ -52116,22 +52125,22 @@
       <c r="B59" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="283"/>
-      <c r="D59" s="283"/>
-      <c r="E59" s="283"/>
-      <c r="F59" s="283"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="291"/>
+      <c r="E59" s="291"/>
+      <c r="F59" s="291"/>
       <c r="G59" s="317"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="283"/>
-      <c r="J59" s="283"/>
+      <c r="H59" s="291"/>
+      <c r="I59" s="291"/>
+      <c r="J59" s="291"/>
       <c r="K59" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L59" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M59" s="286"/>
-      <c r="N59" s="321"/>
+      <c r="M59" s="269"/>
+      <c r="N59" s="315"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
@@ -52148,7 +52157,7 @@
         <f t="shared" ref="E60:E64" si="27">D60/$D$7</f>
         <v>9.9375644077422214E-3</v>
       </c>
-      <c r="F60" s="296"/>
+      <c r="F60" s="282"/>
       <c r="G60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$61/10000,2)</f>
         <v>67.81</v>
@@ -52194,7 +52203,7 @@
         <f t="shared" si="27"/>
         <v>1.8797998332519157E-3</v>
       </c>
-      <c r="F61" s="297"/>
+      <c r="F61" s="283"/>
       <c r="G61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$94/10000,2)</f>
         <v>16.309999999999999</v>
@@ -52239,7 +52248,7 @@
         <f t="shared" si="27"/>
         <v>1.6761116970501471E-3</v>
       </c>
-      <c r="F62" s="297"/>
+      <c r="F62" s="283"/>
       <c r="G62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>10.1</v>
@@ -52285,7 +52294,7 @@
         <f t="shared" si="27"/>
         <v>4.7987543952620064E-4</v>
       </c>
-      <c r="F63" s="297"/>
+      <c r="F63" s="283"/>
       <c r="G63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$61/10000,2)</f>
         <v>1.46</v>
@@ -52331,7 +52340,7 @@
         <f t="shared" si="27"/>
         <v>1.3973351377570487E-2</v>
       </c>
-      <c r="F64" s="298"/>
+      <c r="F64" s="284"/>
       <c r="G64" s="26">
         <f>SUM(G60:G63)</f>
         <v>95.679999999999993</v>
@@ -53051,33 +53060,33 @@
     </row>
     <row r="87" spans="2:13" s="147" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="246"/>
-      <c r="C87" s="308" t="s">
+      <c r="C87" s="309" t="s">
         <v>302</v>
       </c>
-      <c r="D87" s="310" t="s">
+      <c r="D87" s="311" t="s">
         <v>303</v>
       </c>
-      <c r="E87" s="308" t="s">
+      <c r="E87" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="308"/>
-      <c r="G87" s="314" t="s">
+      <c r="F87" s="309"/>
+      <c r="G87" s="312" t="s">
         <v>307</v>
       </c>
-      <c r="H87" s="308" t="s">
+      <c r="H87" s="309" t="s">
         <v>309</v>
       </c>
-      <c r="I87" s="310" t="s">
+      <c r="I87" s="311" t="s">
         <v>304</v>
       </c>
-      <c r="J87" s="308" t="s">
+      <c r="J87" s="309" t="s">
         <v>205</v>
       </c>
-      <c r="K87" s="312" t="s">
+      <c r="K87" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="L87" s="312"/>
-      <c r="M87" s="313" t="s">
+      <c r="L87" s="314"/>
+      <c r="M87" s="308" t="s">
         <v>306</v>
       </c>
     </row>
@@ -53085,21 +53094,21 @@
       <c r="B88" s="232" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="309"/>
-      <c r="D88" s="309"/>
-      <c r="E88" s="309"/>
-      <c r="F88" s="309"/>
-      <c r="G88" s="315"/>
-      <c r="H88" s="309"/>
-      <c r="I88" s="311"/>
-      <c r="J88" s="309"/>
+      <c r="C88" s="310"/>
+      <c r="D88" s="310"/>
+      <c r="E88" s="310"/>
+      <c r="F88" s="310"/>
+      <c r="G88" s="313"/>
+      <c r="H88" s="310"/>
+      <c r="I88" s="322"/>
+      <c r="J88" s="310"/>
       <c r="K88" s="233" t="s">
         <v>145</v>
       </c>
       <c r="L88" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="M88" s="313"/>
+      <c r="M88" s="308"/>
     </row>
     <row r="89" spans="2:13" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="234" t="s">
@@ -53728,36 +53737,36 @@
     </row>
     <row r="104" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="231"/>
-      <c r="C104" s="308" t="s">
+      <c r="C104" s="309" t="s">
         <v>302</v>
       </c>
-      <c r="D104" s="310" t="str">
+      <c r="D104" s="311" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Nov' 20</v>
       </c>
-      <c r="E104" s="308" t="s">
+      <c r="E104" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="F104" s="308"/>
-      <c r="G104" s="314" t="str">
+      <c r="F104" s="309"/>
+      <c r="G104" s="312" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">OBG(SL) 2021-22 </v>
       </c>
-      <c r="H104" s="308" t="s">
+      <c r="H104" s="309" t="s">
         <v>310</v>
       </c>
-      <c r="I104" s="310" t="str">
+      <c r="I104" s="311" t="str">
         <f>I40</f>
         <v>Actuals upto Nov' 21</v>
       </c>
-      <c r="J104" s="308" t="s">
+      <c r="J104" s="309" t="s">
         <v>205</v>
       </c>
-      <c r="K104" s="312" t="s">
+      <c r="K104" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="L104" s="312"/>
-      <c r="M104" s="313" t="s">
+      <c r="L104" s="314"/>
+      <c r="M104" s="308" t="s">
         <v>306</v>
       </c>
     </row>
@@ -53765,21 +53774,21 @@
       <c r="B105" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="309"/>
-      <c r="D105" s="309"/>
-      <c r="E105" s="309"/>
-      <c r="F105" s="309"/>
-      <c r="G105" s="315"/>
-      <c r="H105" s="309"/>
-      <c r="I105" s="309"/>
-      <c r="J105" s="309"/>
+      <c r="C105" s="310"/>
+      <c r="D105" s="310"/>
+      <c r="E105" s="310"/>
+      <c r="F105" s="310"/>
+      <c r="G105" s="313"/>
+      <c r="H105" s="310"/>
+      <c r="I105" s="310"/>
+      <c r="J105" s="310"/>
       <c r="K105" s="233" t="s">
         <v>145</v>
       </c>
       <c r="L105" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="313"/>
+      <c r="M105" s="308"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="234" t="s">
@@ -54185,46 +54194,32 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
@@ -54241,32 +54236,46 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:L104"/>
   </mergeCells>
   <conditionalFormatting sqref="M13:M27">
     <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
